--- a/Stats/Model_Stats_7.xlsx
+++ b/Stats/Model_Stats_7.xlsx
@@ -737,7 +737,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,16 +798,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>d_Bremen</t>
+          <t>d_Koeln</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Bremen</t>
+          <t>Koeln</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>94099.99999999999</v>
+        <v>14.115</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -821,22 +821,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Bremen-Hamburg-Berlin</t>
+          <t>Koeln-Dortmund-Hannover-Berlin</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>e2-e0</t>
+          <t>e6-e5-e1</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>421.09</v>
+        <v>601.0999999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="E3" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Bremen</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -846,16 +846,16 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Bremen-Hannover-Berlin</t>
+          <t>Koeln-Dortmund-Hannover-Bremen</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>e3-e1</t>
+          <t>e6-e5-e3</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>416.28</v>
+        <v>427.58</v>
       </c>
     </row>
     <row r="4">
@@ -871,22 +871,22 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Bremen-Hannover-Dortmund</t>
+          <t>Koeln-Dortmund</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>e3-e5</t>
+          <t>e6</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>332.98</v>
+        <v>94.59999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="E5" t="inlineStr">
         <is>
-          <t>Duesseldorf</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -896,22 +896,22 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Bremen-Hannover-Dortmund-Essen-Duesseldorf</t>
+          <t>Koeln-Duesseldorf-Essen-Dortmund</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>e3-e5-e4-e7</t>
+          <t>e8-e7-e4</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>404.48</v>
+        <v>111.1</v>
       </c>
     </row>
     <row r="6">
       <c r="E6" t="inlineStr">
         <is>
-          <t>Frankfurt</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -921,22 +921,22 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Bremen-Hannover-Frankfurt</t>
+          <t>Koeln-Frankfurt-Hannover-Dortmund</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>e3-e9</t>
+          <t>e10-e9-e5</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>475.88</v>
+        <v>756.7</v>
       </c>
     </row>
     <row r="7">
       <c r="E7" t="inlineStr">
         <is>
-          <t>Hamburg</t>
+          <t>Duesseldorf</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -946,22 +946,22 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Bremen-Hamburg</t>
+          <t>Koeln-Dortmund-Essen-Duesseldorf</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>e2</t>
+          <t>e6-e4-e7</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>114.76</v>
+        <v>166.1</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="inlineStr">
         <is>
-          <t>Hamburg</t>
+          <t>Duesseldorf</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -971,22 +971,22 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Bremen-Hannover-Hamburg</t>
+          <t>Koeln-Duesseldorf</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>e3-e11</t>
+          <t>e8</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>280.28</v>
+        <v>39.6</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Frankfurt</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -996,22 +996,22 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Bremen-Hamburg-Hannover</t>
+          <t>Koeln-Dortmund-Hannover-Frankfurt</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>e2-e11</t>
+          <t>e6-e5-e9</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>273.66</v>
+        <v>660.7</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Frankfurt</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1021,22 +1021,22 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Bremen-Hannover</t>
+          <t>Koeln-Frankfurt</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>e3</t>
+          <t>e10</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>121.38</v>
+        <v>190.6</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="inlineStr">
         <is>
-          <t>Koeln</t>
+          <t>Hamburg</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1046,332 +1046,357 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Bremen-Hannover-Dortmund-Koeln</t>
+          <t>Koeln-Dortmund-Hannover-Hamburg</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>e3-e5-e6</t>
+          <t>e6-e5-e11</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>427.58</v>
+        <v>465.1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>12</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>d_Essen</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Essen</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>94099.99999999999</v>
-      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>p1</t>
+          <t>p11</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Essen-Dortmund-Hannover-Berlin</t>
+          <t>Koeln-Dortmund-Hannover</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>e4-e5-e1</t>
+          <t>e6-e5</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>543.5</v>
+        <v>306.2</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>p2</t>
+          <t>p12</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Essen-Dortmund</t>
+          <t>Koeln-Frankfurt-Hannover</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>e4</t>
+          <t>e10-e9</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>37</v>
+        <v>545.1</v>
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>d_Essen</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Essen</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>9.409999999999998</v>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>p3</t>
+          <t>p1</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Essen-Duesseldorf-Koeln-Dortmund</t>
+          <t>Essen-Dortmund-Hannover-Berlin</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>e7-e8-e6</t>
+          <t>e4-e5-e1</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>168.7</v>
+        <v>543.5</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="inlineStr">
         <is>
-          <t>Duesseldorf</t>
+          <t>Bremen</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>p4</t>
+          <t>p2</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Essen-Dortmund-Koeln-Duesseldorf</t>
+          <t>Essen-Dortmund-Hannover-Bremen</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>e4-e6-e8</t>
+          <t>e4-e5-e3</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>171.2</v>
+        <v>369.98</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="inlineStr">
         <is>
-          <t>Duesseldorf</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>p5</t>
+          <t>p3</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Essen-Duesseldorf</t>
+          <t>Essen-Dortmund</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>e7</t>
+          <t>e4</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>34.5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="inlineStr">
         <is>
-          <t>Frankfurt</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>p6</t>
+          <t>p4</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Essen-Dortmund-Hannover-Frankfurt</t>
+          <t>Essen-Duesseldorf-Koeln-Dortmund</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>e4-e5-e9</t>
+          <t>e7-e8-e6</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>603.1</v>
+        <v>168.7</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="inlineStr">
         <is>
-          <t>Frankfurt</t>
+          <t>Duesseldorf</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>p7</t>
+          <t>p5</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Essen-Duesseldorf-Koeln-Frankfurt</t>
+          <t>Essen-Dortmund-Koeln-Duesseldorf</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>e7-e8-e10</t>
+          <t>e4-e6-e8</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>264.7</v>
+        <v>171.2</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="inlineStr">
         <is>
-          <t>Hamburg</t>
+          <t>Duesseldorf</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>p8</t>
+          <t>p6</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Essen-Dortmund-Hannover-Hamburg</t>
+          <t>Essen-Duesseldorf</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>e4-e5-e11</t>
+          <t>e7</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>407.5</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Frankfurt</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>p9</t>
+          <t>p7</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Essen-Dortmund-Hannover</t>
+          <t>Essen-Dortmund-Hannover-Frankfurt</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>e4-e5</t>
+          <t>e4-e5-e9</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>248.6</v>
+        <v>603.1</v>
       </c>
     </row>
     <row r="21">
       <c r="E21" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Frankfurt</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>p10</t>
+          <t>p8</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Essen-Duesseldorf-Koeln-Frankfurt-Hannover</t>
+          <t>Essen-Duesseldorf-Koeln-Frankfurt</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>e7-e8-e10-e9</t>
+          <t>e7-e8-e10</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>619.2</v>
+        <v>264.7</v>
       </c>
     </row>
     <row r="22">
       <c r="E22" t="inlineStr">
         <is>
-          <t>Koeln</t>
+          <t>Hamburg</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>p11</t>
+          <t>p9</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Essen-Dortmund-Koeln</t>
+          <t>Essen-Dortmund-Hannover-Hamburg</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>e4-e6</t>
+          <t>e4-e5-e11</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>131.6</v>
+        <v>407.5</v>
       </c>
     </row>
     <row r="23">
       <c r="E23" t="inlineStr">
         <is>
-          <t>Koeln</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>p12</t>
+          <t>p10</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Essen-Duesseldorf-Koeln</t>
+          <t>Essen-Dortmund-Hannover</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>e7-e8</t>
+          <t>e4-e5</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>74.09999999999999</v>
+        <v>248.6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Hannover</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>p11</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Essen-Duesseldorf-Koeln-Frankfurt-Hannover</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>e7-e8-e10-e9</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>619.2</v>
       </c>
     </row>
   </sheetData>
@@ -1412,7 +1437,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>mu_d_Bremen_p6</t>
+          <t>mu_d_Koeln_p3</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -1425,7 +1450,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>mu_d_Bremen_p9</t>
+          <t>mu_d_Koeln_p7</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -1438,7 +1463,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>mu_d_Essen_p2</t>
+          <t>mu_d_Essen_p3</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -1451,7 +1476,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>mu_d_Essen_p5</t>
+          <t>mu_d_Essen_p6</t>
         </is>
       </c>
       <c r="C6" t="n">
